--- a/automation/abstimmungsergebnisse/politik_abstimmungen_seit1933_metadata.xlsx
+++ b/automation/abstimmungsergebnisse/politik_abstimmungen_seit1933_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszgua\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszgua\Python\git\opendatazurich.github.io\automation\abstimmungsergebnisse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAB0A32-BF82-4CD8-A70C-EC8BD4157C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14060F9D-855F-4A60-B0B9-C39D79B736D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31005" yWindow="2025" windowWidth="20715" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -372,58 +372,37 @@
     <t>Anzahl stimmberechtigter Personen zum Zeitpunkt der Abstimmung</t>
   </si>
   <si>
-    <t>Ja</t>
-  </si>
-  <si>
     <t>Ja-Stimmen</t>
   </si>
   <si>
     <t>Anzahl Ja-Stimmen</t>
   </si>
   <si>
-    <t>Nein</t>
-  </si>
-  <si>
     <t>Nein-Stimmen</t>
   </si>
   <si>
     <t>Anzahl Nein-Stimmen</t>
   </si>
   <si>
-    <t>Stimmbeteiligung (%)</t>
-  </si>
-  <si>
     <t>Stimmbeteiligung in Prozent</t>
   </si>
   <si>
-    <t>Ja (%)</t>
-  </si>
-  <si>
     <t>Ja-Anteil in Prozent</t>
   </si>
   <si>
     <t>Prozentualer Anteil Ja-Stimmen</t>
   </si>
   <si>
-    <t>Nein (%)</t>
-  </si>
-  <si>
     <t>Nein-Anteil in Prozent</t>
   </si>
   <si>
     <t>Prozentualer Anteil Nein-Stimmen</t>
   </si>
   <si>
-    <t>StaendeJa</t>
-  </si>
-  <si>
     <t>Ja-Stände</t>
   </si>
   <si>
     <t>Anzahl Stände Ja</t>
-  </si>
-  <si>
-    <t>SteandeNein</t>
   </si>
   <si>
     <t>Nein-Stände</t>
@@ -708,6 +687,27 @@
     <t xml:space="preserve">Enthält die Resultate aller Abstimmungen seit 1933 auf kommunaler, kantonaler und eidgenössischer Ebene.
 Die Abstimmungsresultate werden von Statistik Stadt Zürich in der sog. **Abstimmungsdatenbank** erfasst und sind im Internet unter [**diesem Link**](https://www.stadt-zuerich.ch/prd/de/index/statistik/themen/staat-recht-politik/politik/abstimmungen.html) zugänglich. 
 </t>
+  </si>
+  <si>
+    <t>Stimmbeteiligung_Prozent</t>
+  </si>
+  <si>
+    <t>Nein_Prozent</t>
+  </si>
+  <si>
+    <t>Ja_Prozent</t>
+  </si>
+  <si>
+    <t>Ja_Absolut</t>
+  </si>
+  <si>
+    <t>Nein_Absolut</t>
+  </si>
+  <si>
+    <t>Staende_Ja</t>
+  </si>
+  <si>
+    <t>Staende_Nein</t>
   </si>
 </sst>
 </file>
@@ -1325,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1394,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
@@ -1896,13 +1896,13 @@
         <v>85</v>
       </c>
       <c r="B38" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="D38" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1910,13 +1910,13 @@
         <v>85</v>
       </c>
       <c r="B39" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1924,13 +1924,13 @@
         <v>85</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1938,13 +1938,13 @@
         <v>85</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1952,13 +1952,13 @@
         <v>85</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1966,13 +1966,13 @@
         <v>85</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1980,13 +1980,13 @@
         <v>85</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1998,7 +1998,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="7"/>
       <c r="F45" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2010,7 +2010,7 @@
       <c r="D46" s="21"/>
       <c r="E46" s="7"/>
       <c r="F46" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2022,7 +2022,7 @@
       <c r="D47" s="21"/>
       <c r="E47" s="7"/>
       <c r="F47" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2144,7 +2144,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="7"/>
@@ -2158,10 +2158,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>21</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B65" s="13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>12</v>
@@ -2180,12 +2180,12 @@
       <c r="D65" s="13"/>
       <c r="E65" s="7"/>
       <c r="F65" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -2246,112 +2246,112 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2381,15 +2381,15 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2399,30 +2399,30 @@
     </row>
     <row r="4" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2452,50 +2452,50 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2505,37 +2505,37 @@
     </row>
     <row r="11" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2546,12 +2546,12 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2600,59 +2600,59 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D2"/>
     </row>
     <row r="3" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2661,130 +2661,130 @@
       </c>
       <c r="B6" s="26"/>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D11"/>
     </row>
     <row r="12" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D12"/>
     </row>
     <row r="13" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D15"/>
     </row>
     <row r="16" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C22" s="26"/>
     </row>
